--- a/Europe_Policy_Uncertainty_Data.xlsx
+++ b/Europe_Policy_Uncertainty_Data.xlsx
@@ -1,38 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/PathtoDataScience/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/bc_f19_econ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F2FBDE-8E85-A042-A221-A479B87527D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B67F9-F0B5-684B-BA42-58CEB81AE922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="37140" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="European News-Based Index" sheetId="1" r:id="rId1"/>
     <sheet name="Old EPU and Forecast Data" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'European News-Based Index'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'European News-Based Index'!$AB$2:$AB$392</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'European News-Based Index'!$I$2:$I$392</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'European News-Based Index'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'European News-Based Index'!$AB$2:$AB$392</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'European News-Based Index'!$I$2:$I$392</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'European News-Based Index'!$I$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'European News-Based Index'!$I$2:$I$392</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'European News-Based Index'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'European News-Based Index'!$AB$2:$AB$392</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'European News-Based Index'!$I$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'European News-Based Index'!$I$2:$I$392</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'European News-Based Index'!$AB$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'European News-Based Index'!$AB$2:$AB$392</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4006,6 +3990,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1246544399"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5584,9 +5569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM392"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" activeCellId="1" sqref="AB1:AB1048576 I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5595,6 +5580,7 @@
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="39" x14ac:dyDescent="0.2">
@@ -35404,7 +35390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA34C49-E57D-A04F-A815-E7067BD180CF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Europe_Policy_Uncertainty_Data.xlsx
+++ b/Europe_Policy_Uncertainty_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/bc_f19_econ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B67F9-F0B5-684B-BA42-58CEB81AE922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146EF938-5594-004A-9A04-5507EBCA40F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5571,7 +5572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
